--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>848431.54658665</v>
+        <v>860834.508747383</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736304</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="D2" t="n">
-        <v>655421.0709736305</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="E2" t="n">
         <v>182912.8770397817</v>
@@ -26424,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="F4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="G4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="H4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="I4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="J4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="K4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="L4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="M4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="N4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="O4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="P4" t="n">
-        <v>85772.73056817782</v>
+        <v>86007.74400485966</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154177.5110418994</v>
+        <v>154177.5110418995</v>
       </c>
       <c r="C6" t="n">
-        <v>154177.5110418992</v>
+        <v>154177.5110418995</v>
       </c>
       <c r="D6" t="n">
-        <v>154177.5110418993</v>
+        <v>154177.5110418995</v>
       </c>
       <c r="E6" t="n">
-        <v>-39571.46563340449</v>
+        <v>-39806.47907008635</v>
       </c>
       <c r="F6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991374</v>
       </c>
       <c r="G6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991372</v>
       </c>
       <c r="H6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991374</v>
       </c>
       <c r="I6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991372</v>
       </c>
       <c r="J6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991374</v>
       </c>
       <c r="K6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991372</v>
       </c>
       <c r="L6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991374</v>
       </c>
       <c r="M6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991372</v>
       </c>
       <c r="N6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991374</v>
       </c>
       <c r="O6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991372</v>
       </c>
       <c r="P6" t="n">
-        <v>93528.53436659557</v>
+        <v>93293.52092991374</v>
       </c>
     </row>
   </sheetData>
